--- a/output/【河洛話注音】秋風詞．李白.xlsx
+++ b/output/【河洛話注音】秋風詞．李白.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2F63DD-285A-4615-ADA1-714F0A35C875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A4721A-9D9D-47C1-957D-7B87466D904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FBF0368D-B64F-4542-B2B4-004749508C38}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{FBF0368D-B64F-4542-B2B4-004749508C38}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>

--- a/output/【河洛話注音】秋風詞．李白.xlsx
+++ b/output/【河洛話注音】秋風詞．李白.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A4721A-9D9D-47C1-957D-7B87466D904B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8D5A92-FA37-4E38-94AB-ABD4C22A5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{FBF0368D-B64F-4542-B2B4-004749508C38}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{FBF0368D-B64F-4542-B2B4-004749508C38}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="10" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="534">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -718,9 +718,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;keng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1081,9 +1078,6 @@
     <t>&lt;div class='fifteen_yin'&gt;&lt;p class='title'&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1141,9 +1135,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧㄨ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1186,9 +1177,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㆤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1289,9 +1277,6 @@
   </si>
   <si>
     <t>&lt;div class='pin_yin'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1376,9 +1361,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1443,9 +1425,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chiu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1486,9 +1465,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;se1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;king1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
@@ -1606,9 +1582,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rt&gt;chiu1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詞&lt;/rb&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1651,9 +1624,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棲&lt;/rb&gt;&lt;rt&gt;se1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rt&gt;hiu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驚&lt;/rb&gt;&lt;rt&gt;king1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -1751,6 +1721,42 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;識&lt;/rb&gt;&lt;rt&gt;ci3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>iok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hi̍ok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híok&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rt&gt;hiok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2170,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2179,17 +2185,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2199,12 +2205,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -2219,17 +2225,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -2239,17 +2245,17 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -2264,27 +2270,27 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -2299,27 +2305,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -2339,37 +2345,37 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -2384,37 +2390,37 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -2434,27 +2440,27 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -2469,27 +2475,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -2509,37 +2515,37 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -2554,37 +2560,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -2604,37 +2610,37 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -2649,37 +2655,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -2723,10 +2729,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" t="s">
         <v>286</v>
-      </c>
-      <c r="C2" t="s">
-        <v>287</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -2749,10 +2755,10 @@
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2838,10 +2844,10 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
         <v>286</v>
-      </c>
-      <c r="C10" t="s">
-        <v>287</v>
       </c>
       <c r="D10" t="s">
         <v>74</v>
@@ -2864,10 +2870,10 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2878,10 +2884,10 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D12" t="s">
         <v>85</v>
@@ -2903,10 +2909,10 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" t="s">
         <v>286</v>
-      </c>
-      <c r="C14" t="s">
-        <v>287</v>
       </c>
       <c r="D14" t="s">
         <v>74</v>
@@ -2993,10 +2999,10 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" t="s">
         <v>291</v>
-      </c>
-      <c r="C20" t="s">
-        <v>292</v>
       </c>
       <c r="D20" t="s">
         <v>94</v>
@@ -3013,10 +3019,10 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D21" t="s">
         <v>78</v>
@@ -3103,10 +3109,10 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" t="s">
         <v>100</v>
@@ -3123,13 +3129,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3143,16 +3149,16 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>522</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3198,7 +3204,7 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -3218,7 +3224,7 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
@@ -3238,7 +3244,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" t="s">
         <v>77</v>
@@ -3348,10 +3354,10 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
         <v>81</v>
@@ -3388,10 +3394,10 @@
         <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D45" t="s">
         <v>81</v>
@@ -3408,10 +3414,10 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D46" t="s">
         <v>113</v>
@@ -3448,10 +3454,10 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
         <v>81</v>
@@ -3468,10 +3474,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D49" t="s">
         <v>85</v>
@@ -3523,7 +3529,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C54" t="s">
         <v>87</v>
@@ -3543,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C55" t="s">
         <v>77</v>
@@ -3563,7 +3569,7 @@
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
@@ -3633,7 +3639,7 @@
         <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
@@ -3653,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" t="s">
         <v>77</v>
@@ -3673,7 +3679,7 @@
         <v>41</v>
       </c>
       <c r="B63" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C63" t="s">
         <v>77</v>
@@ -3728,7 +3734,7 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C68" t="s">
         <v>106</v>
@@ -3748,7 +3754,7 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
         <v>77</v>
@@ -3768,7 +3774,7 @@
         <v>41</v>
       </c>
       <c r="B70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -3788,13 +3794,13 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C71" t="s">
         <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E71">
         <v>5</v>
@@ -3808,7 +3814,7 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C72" t="s">
         <v>106</v>
@@ -3828,7 +3834,7 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C73" t="s">
         <v>77</v>
@@ -3848,10 +3854,10 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D74" t="s">
         <v>84</v>
@@ -3898,7 +3904,7 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C78" t="s">
         <v>77</v>
@@ -3918,7 +3924,7 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
         <v>77</v>
@@ -3938,13 +3944,13 @@
         <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C80" t="s">
         <v>75</v>
       </c>
       <c r="D80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E80">
         <v>5</v>
@@ -4033,10 +4039,10 @@
         <v>65</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
         <v>108</v>
@@ -4093,10 +4099,10 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D90" t="s">
         <v>81</v>
@@ -4113,7 +4119,7 @@
         <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C91" t="s">
         <v>83</v>
@@ -4243,10 +4249,10 @@
         <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C99" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D99" t="s">
         <v>81</v>
@@ -4283,7 +4289,7 @@
         <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
         <v>77</v>
@@ -4303,10 +4309,10 @@
         <v>73</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D102" t="s">
         <v>81</v>
@@ -4347,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
@@ -4356,7 +4362,7 @@
         <v>288</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4364,13 +4370,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4381,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -4390,7 +4396,7 @@
         <v>288</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4398,13 +4404,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4421,7 +4427,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4438,7 +4444,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4455,7 +4461,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4472,7 +4478,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4551,16 +4557,16 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>19410</v>
+        <v>20164</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4568,13 +4574,13 @@
         <v>29</v>
       </c>
       <c r="B14">
-        <v>20164</v>
+        <v>19410</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4591,7 +4597,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4608,7 +4614,7 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4625,10 +4631,10 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4642,7 +4648,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4659,7 +4665,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4676,7 +4682,7 @@
         <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4795,7 +4801,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4806,16 +4812,16 @@
         <v>48</v>
       </c>
       <c r="B28">
-        <v>14772</v>
+        <v>827</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4829,7 +4835,7 @@
         <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4846,7 +4852,7 @@
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4863,10 +4869,10 @@
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4880,7 +4886,7 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4897,7 +4903,7 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4914,7 +4920,7 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4931,10 +4937,10 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4948,7 +4954,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4999,7 +5005,7 @@
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5016,7 +5022,7 @@
         <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5033,7 +5039,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5050,7 +5056,7 @@
         <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5067,7 +5073,7 @@
         <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5084,10 +5090,10 @@
         <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5101,7 +5107,7 @@
         <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5118,7 +5124,7 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -5135,7 +5141,7 @@
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5152,7 +5158,7 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -5169,7 +5175,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5186,7 +5192,7 @@
         <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -5203,7 +5209,7 @@
         <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5220,7 +5226,7 @@
         <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -5237,10 +5243,10 @@
         <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5254,7 +5260,7 @@
         <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5407,7 +5413,7 @@
         <v>40</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5424,7 +5430,7 @@
         <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -5441,7 +5447,7 @@
         <v>73</v>
       </c>
       <c r="D65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -5458,7 +5464,7 @@
         <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -5611,12 +5617,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -5626,17 +5632,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -5646,17 +5652,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -5666,17 +5672,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -5686,17 +5692,17 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -5711,27 +5717,27 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -5746,27 +5752,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -5786,37 +5792,37 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -5831,37 +5837,37 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -5881,27 +5887,27 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -5916,27 +5922,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -5956,37 +5962,37 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -6001,37 +6007,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -6051,37 +6057,37 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -6096,37 +6102,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -6163,12 +6169,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6178,17 +6184,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>431</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -6198,17 +6204,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -6218,17 +6224,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>431</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6238,17 +6244,17 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6263,27 +6269,27 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -6298,27 +6304,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>446</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -6338,37 +6344,37 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -6383,37 +6389,37 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -6433,27 +6439,27 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -6468,27 +6474,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -6508,37 +6514,37 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -6553,37 +6559,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -6603,37 +6609,37 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -6648,37 +6654,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -6715,12 +6721,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6730,17 +6736,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>411</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -6750,17 +6756,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -6770,17 +6776,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>411</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6790,17 +6796,17 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -6815,27 +6821,27 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -6850,27 +6856,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>250</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -6890,37 +6896,37 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -6935,37 +6941,37 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -6985,27 +6991,27 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -7020,27 +7026,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -7060,37 +7066,37 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -7105,37 +7111,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -7155,37 +7161,37 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -7200,37 +7206,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -7269,12 +7275,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7284,17 +7290,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7309,12 +7315,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -7324,17 +7330,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>385</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -7344,17 +7350,17 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -7374,17 +7380,17 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -7409,22 +7415,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>201</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -7444,37 +7450,37 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -7489,37 +7495,37 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -7539,27 +7545,27 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -7574,27 +7580,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -7614,37 +7620,37 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -7659,37 +7665,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -7709,37 +7715,37 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -7754,37 +7760,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -7828,7 +7834,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7843,12 +7849,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>385</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -7868,7 +7874,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -7883,7 +7889,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>385</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -7928,12 +7934,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -7963,22 +7969,22 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>201</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -7998,37 +8004,37 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -8043,37 +8049,37 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -8093,27 +8099,27 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -8128,27 +8134,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8168,37 +8174,37 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -8213,37 +8219,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -8263,37 +8269,37 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -8308,37 +8314,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -8382,7 +8388,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -8392,17 +8398,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>335</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -8412,17 +8418,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8432,17 +8438,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>335</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -8452,17 +8458,17 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -8477,27 +8483,27 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -8512,27 +8518,27 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>350</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -8552,37 +8558,37 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -8597,37 +8603,37 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -8647,27 +8653,27 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -8682,27 +8688,27 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8722,37 +8728,37 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -8767,37 +8773,37 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -8817,37 +8823,37 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -8862,37 +8868,37 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:1">
@@ -9483,12 +9489,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9503,12 +9509,12 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>315</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9528,7 +9534,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9543,7 +9549,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>315</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -9593,7 +9599,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -9628,12 +9634,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9658,17 +9664,17 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -9678,12 +9684,12 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -9703,7 +9709,7 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -9713,7 +9719,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -9728,7 +9734,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -9758,17 +9764,17 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:1">
@@ -9788,22 +9794,22 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -9828,32 +9834,32 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -9878,17 +9884,17 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -9928,7 +9934,7 @@
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -9938,12 +9944,12 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -9968,7 +9974,7 @@
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -9983,22 +9989,22 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:1">
